--- a/results/pain_results_2_3_2021.xlsx
+++ b/results/pain_results_2_3_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pessa001/Desktop/pain_horses/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB050935-D085-884D-8E66-BBC911D41A69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A72B3E-C143-6141-9554-95340AD0C4F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{77CF3A99-3B26-8A4C-A741-E8C445941D83}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>MV F1-Score</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Precision</t>
   </si>
@@ -45,24 +42,9 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>F1-score</t>
-  </si>
-  <si>
-    <t>W F1-score</t>
-  </si>
-  <si>
-    <t>W  recall</t>
-  </si>
-  <si>
-    <t>W precision</t>
-  </si>
-  <si>
     <t>Ears</t>
   </si>
   <si>
-    <t>Orbital</t>
-  </si>
-  <si>
     <t>Binary</t>
   </si>
   <si>
@@ -72,14 +54,41 @@
     <t>Sclera</t>
   </si>
   <si>
-    <t>Noistrils</t>
+    <t>Nostrils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orbital </t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>F1-Score (MV)</t>
+  </si>
+  <si>
+    <t>Kernel</t>
+  </si>
+  <si>
+    <t>CPB</t>
+  </si>
+  <si>
+    <t>PPC</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>Three classes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,13 +96,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,13 +153,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -424,180 +487,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD019AF9-16F8-6340-97B5-1361D93FB099}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.61</v>
+      </c>
+      <c r="D4">
+        <v>0.59</v>
+      </c>
+      <c r="E4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.76</v>
-      </c>
-      <c r="C3">
-        <v>0.86</v>
-      </c>
-      <c r="D3">
-        <v>0.52</v>
-      </c>
-      <c r="E3">
-        <v>0.73</v>
-      </c>
-      <c r="F3">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.73</v>
-      </c>
-      <c r="C4">
-        <v>0.79</v>
-      </c>
-      <c r="D4">
-        <v>0.54</v>
-      </c>
-      <c r="E4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F4">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
       <c r="B5">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="C5">
         <v>0.79</v>
       </c>
       <c r="D5">
+        <v>0.78</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.53</v>
+      </c>
+      <c r="C6">
         <v>0.54</v>
       </c>
-      <c r="E5">
+      <c r="D6">
+        <v>0.53</v>
+      </c>
+      <c r="E6">
+        <v>0.36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F5">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E7">
+        <v>0.62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.66</v>
+      </c>
+      <c r="C8">
+        <v>0.63</v>
+      </c>
+      <c r="D8">
+        <v>0.65</v>
+      </c>
+      <c r="E8">
+        <v>0.68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>0.73</v>
-      </c>
-      <c r="C6">
-        <v>0.79</v>
-      </c>
-      <c r="D6">
-        <v>0.54</v>
-      </c>
-      <c r="E6">
+      <c r="I12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <v>0.52</v>
+      </c>
+      <c r="D13">
+        <v>0.51</v>
+      </c>
+      <c r="E13">
+        <v>0.44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0.75</v>
+      </c>
+      <c r="C14">
+        <v>0.82</v>
+      </c>
+      <c r="D14">
+        <v>0.78</v>
+      </c>
+      <c r="E14">
+        <v>0.8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.48</v>
+      </c>
+      <c r="C15">
+        <v>0.49</v>
+      </c>
+      <c r="D15">
+        <v>0.48</v>
+      </c>
+      <c r="E15">
+        <v>0.33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F6">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.69</v>
-      </c>
-      <c r="C7">
-        <v>0.77</v>
-      </c>
-      <c r="D7">
-        <v>0.53</v>
-      </c>
-      <c r="E7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F7">
+      <c r="D16">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>0.73</v>
-      </c>
-      <c r="C8">
-        <v>0.79</v>
-      </c>
-      <c r="D8">
-        <v>0.54</v>
-      </c>
-      <c r="E8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F8">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0.71</v>
-      </c>
-      <c r="C9">
-        <v>0.78</v>
-      </c>
-      <c r="D9">
-        <v>0.53</v>
-      </c>
-      <c r="E9">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F9">
-        <v>0.54</v>
+      <c r="E16">
+        <v>0.62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0.64</v>
+      </c>
+      <c r="C17">
+        <v>0.63</v>
+      </c>
+      <c r="D17">
+        <v>0.63</v>
+      </c>
+      <c r="E17">
+        <v>0.65</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A10:I10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/pain_results_2_3_2021.xlsx
+++ b/results/pain_results_2_3_2021.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pessa001/Desktop/pain_horses/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A72B3E-C143-6141-9554-95340AD0C4F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363EEF01-A34C-3F47-A5B7-6724A2844A0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{77CF3A99-3B26-8A4C-A741-E8C445941D83}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77CF3A99-3B26-8A4C-A741-E8C445941D83}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cross validation (new)" sheetId="2" r:id="rId1"/>
+    <sheet name="With previously used values" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="44">
   <si>
     <t>Precision</t>
   </si>
@@ -82,6 +83,90 @@
   </si>
   <si>
     <t>Three classes</t>
+  </si>
+  <si>
+    <t>F1-score: 0.7709723142137085 (+/-) 0.046757099538638124</t>
+  </si>
+  <si>
+    <t>Cross-validation</t>
+  </si>
+  <si>
+    <t>F1-score: 0.7311646483558178 (+/-) 0.05932724986601358</t>
+  </si>
+  <si>
+    <t>F1-score: 0.6780688274636796 (+/-) 0.10444693334550945</t>
+  </si>
+  <si>
+    <t>F1-score: 0.6074859861663636 (+/-) 0.13895859864340585</t>
+  </si>
+  <si>
+    <t>F1-score: 0.5835116206823076 (+/-) 0.1383049700880512</t>
+  </si>
+  <si>
+    <t>F1-score: 0.5629437482147128 (+/-) 0.1302258037391901</t>
+  </si>
+  <si>
+    <t>F1-score: 0.7750749114997596 (+/-) 0.05126167152139968</t>
+  </si>
+  <si>
+    <t>F1-score: 0.7502803573556743 (+/-) 0.04139701975113554</t>
+  </si>
+  <si>
+    <t>F1-score: 0.7241591877045708 (+/-) 0.06647554864731606</t>
+  </si>
+  <si>
+    <t>F1-score: 0.6603850075349605 (+/-) 0.10907524320283847</t>
+  </si>
+  <si>
+    <t>F1-score: 0.6439949811729022 (+/-) 0.09985568104577142</t>
+  </si>
+  <si>
+    <t>F1-score: 0.6345851751859525 (+/-) 0.09418514739149753</t>
+  </si>
+  <si>
+    <t>Binary - bw = max(max_x - min_x, 0.05*w)</t>
+  </si>
+  <si>
+    <t>Three classes - bw = max(max_x - min_x, 0.05*w)</t>
+  </si>
+  <si>
+    <t>F1-score: 0.7829514182962839 (+/-) 0.04311357438691836</t>
+  </si>
+  <si>
+    <t>F1-score: 0.7533473044104759 (+/-) 0.04097364498991399</t>
+  </si>
+  <si>
+    <t>F1-score: 0.7265217474678941 (+/-) 0.06872841045190688</t>
+  </si>
+  <si>
+    <t>F1-score: 0.6644530625692375 (+/-) 0.10720433001860175</t>
+  </si>
+  <si>
+    <t>F1-score: 0.6470010230977804 (+/-) 0.0994703065057871</t>
+  </si>
+  <si>
+    <t>F1-score: 0.6368302777196195 (+/-) 0.09422346205699271</t>
+  </si>
+  <si>
+    <t>F1-score: 0.7819536515634149 (+/-) 0.043504714179256526</t>
+  </si>
+  <si>
+    <t>F1-score: 0.7351514608130989 (+/-) 0.06142195379866163</t>
+  </si>
+  <si>
+    <t>F1-score: 0.6804894015932083 (+/-) 0.10678244930081544</t>
+  </si>
+  <si>
+    <t>F1-score: 0.6117550785230663 (+/-) 0.13899207932110091</t>
+  </si>
+  <si>
+    <t>F1-score: 0.5851708820163424 (+/-) 0.1395288781774619</t>
+  </si>
+  <si>
+    <t>F1-score: 0.562793936741386 (+/-) 0.13218786513749473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With previous parameters </t>
   </si>
 </sst>
 </file>
@@ -119,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +228,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -159,7 +250,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +261,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -486,11 +580,464 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD019AF9-16F8-6340-97B5-1361D93FB099}">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C26F951-53E2-3747-ACB9-4D7D5FEB71AE}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="52.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.59</v>
+      </c>
+      <c r="D4">
+        <v>0.61</v>
+      </c>
+      <c r="E4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.77</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>0.73</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.53</v>
+      </c>
+      <c r="C6">
+        <v>0.54</v>
+      </c>
+      <c r="D6">
+        <v>0.53</v>
+      </c>
+      <c r="E6">
+        <v>0.36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C7">
+        <v>0.53</v>
+      </c>
+      <c r="D7">
+        <v>0.54</v>
+      </c>
+      <c r="E7">
+        <v>0.62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.66</v>
+      </c>
+      <c r="C8">
+        <v>0.63</v>
+      </c>
+      <c r="D8">
+        <v>0.66</v>
+      </c>
+      <c r="E8">
+        <v>0.68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <v>0.51</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0.44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0.77</v>
+      </c>
+      <c r="C14">
+        <v>0.73</v>
+      </c>
+      <c r="D14">
+        <v>0.75</v>
+      </c>
+      <c r="E14">
+        <v>0.8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.52</v>
+      </c>
+      <c r="C15">
+        <v>0.52</v>
+      </c>
+      <c r="D15">
+        <v>0.52</v>
+      </c>
+      <c r="E15">
+        <v>0.33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D16">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E16">
+        <v>0.62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0.62</v>
+      </c>
+      <c r="C17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E17">
+        <v>0.65</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A10:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD019AF9-16F8-6340-97B5-1361D93FB099}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,9 +1047,9 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -513,7 +1060,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -536,19 +1083,22 @@
       <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.69</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.73</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.71</v>
       </c>
       <c r="E3" s="5">
         <v>0.66</v>
@@ -558,24 +1108,27 @@
         <v>14</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.57999999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C4">
-        <v>0.61</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D4">
-        <v>0.59</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E4">
         <v>0.55000000000000004</v>
@@ -584,24 +1137,27 @@
         <v>14</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="C5">
         <v>0.79</v>
       </c>
       <c r="D5">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E5">
         <v>0.8</v>
@@ -610,24 +1166,27 @@
         <v>14</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="C6">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="D6">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="E6">
         <v>0.36</v>
@@ -641,8 +1200,11 @@
       <c r="I6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -653,7 +1215,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="D7">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E7">
         <v>0.62</v>
@@ -662,13 +1224,16 @@
         <v>14</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -693,13 +1258,16 @@
       <c r="I8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -710,7 +1278,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
@@ -734,7 +1302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -742,7 +1310,7 @@
         <v>0.66</v>
       </c>
       <c r="C12" s="5">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="D12" s="5">
         <v>0.69</v>
@@ -755,24 +1323,27 @@
         <v>14</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="C13">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="D13">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="E13">
         <v>0.44</v>
@@ -781,24 +1352,27 @@
         <v>14</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="C14">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="D14">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="E14">
         <v>0.8</v>
@@ -807,13 +1381,16 @@
         <v>14</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -838,8 +1415,11 @@
       <c r="I15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -847,10 +1427,10 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C16">
+        <v>0.59</v>
+      </c>
+      <c r="D16">
         <v>0.56999999999999995</v>
-      </c>
-      <c r="D16">
-        <v>0.56000000000000005</v>
       </c>
       <c r="E16">
         <v>0.62</v>
@@ -859,24 +1439,27 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B17">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="C17">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="D17">
-        <v>0.63</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E17">
         <v>0.65</v>
@@ -885,16 +1468,426 @@
         <v>14</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C23">
+        <v>0.61</v>
+      </c>
+      <c r="D23">
+        <v>0.59</v>
+      </c>
+      <c r="E23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>0.77</v>
+      </c>
+      <c r="C24">
+        <v>0.79</v>
+      </c>
+      <c r="D24">
+        <v>0.78</v>
+      </c>
+      <c r="E24">
+        <v>0.8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>0.53</v>
+      </c>
+      <c r="C25">
+        <v>0.54</v>
+      </c>
+      <c r="D25">
+        <v>0.53</v>
+      </c>
+      <c r="E25">
+        <v>0.36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C26">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D26">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E26">
+        <v>0.62</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>0.66</v>
+      </c>
+      <c r="C27">
+        <v>0.63</v>
+      </c>
+      <c r="D27">
+        <v>0.65</v>
+      </c>
+      <c r="E27">
+        <v>0.68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>0.5</v>
+      </c>
+      <c r="C32">
+        <v>0.52</v>
+      </c>
+      <c r="D32">
+        <v>0.51</v>
+      </c>
+      <c r="E32">
+        <v>0.44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>0.75</v>
+      </c>
+      <c r="C33">
+        <v>0.82</v>
+      </c>
+      <c r="D33">
+        <v>0.78</v>
+      </c>
+      <c r="E33">
+        <v>0.8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>0.48</v>
+      </c>
+      <c r="C34">
+        <v>0.49</v>
+      </c>
+      <c r="D34">
+        <v>0.48</v>
+      </c>
+      <c r="E34">
+        <v>0.33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C35">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D35">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E35">
+        <v>0.62</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>0.64</v>
+      </c>
+      <c r="C36">
+        <v>0.63</v>
+      </c>
+      <c r="D36">
+        <v>0.63</v>
+      </c>
+      <c r="E36">
+        <v>0.65</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/pain_results_2_3_2021.xlsx
+++ b/results/pain_results_2_3_2021.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pessa001/Desktop/pain_horses/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pessa001/Desktop/Horse Project/pain_horses/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363EEF01-A34C-3F47-A5B7-6724A2844A0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81444876-279D-0F40-BD4D-BF7C6706224B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77CF3A99-3B26-8A4C-A741-E8C445941D83}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{77CF3A99-3B26-8A4C-A741-E8C445941D83}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross validation (new)" sheetId="2" r:id="rId1"/>
     <sheet name="With previously used values" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -252,15 +253,15 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,7 +585,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,62 +595,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.69</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.72</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.66</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
       <c r="G3" t="s">
         <v>14</v>
       </c>
@@ -664,7 +665,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -693,7 +694,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -722,7 +723,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -751,7 +752,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -780,7 +781,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -809,62 +810,62 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.64</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.72</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.67</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.66</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
       <c r="G12" t="s">
         <v>14</v>
       </c>
@@ -879,7 +880,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13">
@@ -908,7 +909,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -937,7 +938,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B15">
@@ -966,7 +967,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B16">
@@ -995,7 +996,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B17">
@@ -1048,62 +1049,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0.68</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.69</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.66</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
       <c r="G3" t="s">
         <v>14</v>
       </c>
@@ -1118,7 +1119,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -1147,7 +1148,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -1176,7 +1177,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -1205,7 +1206,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -1234,7 +1235,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -1263,62 +1264,62 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.66</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.72</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.69</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.66</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
       <c r="G12" t="s">
         <v>14</v>
       </c>
@@ -1333,7 +1334,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13">
@@ -1362,7 +1363,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -1391,7 +1392,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B15">
@@ -1420,7 +1421,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B16">
@@ -1449,7 +1450,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B17">
@@ -1491,59 +1492,59 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>0.69</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.73</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>0.71</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>0.66</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
       <c r="G22" t="s">
         <v>14</v>
       </c>
@@ -1555,7 +1556,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B23">
@@ -1581,7 +1582,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B24">
@@ -1607,7 +1608,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25">
@@ -1633,7 +1634,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B26">
@@ -1659,7 +1660,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B27">
@@ -1685,62 +1686,62 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>0.66</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>0.74</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>0.69</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>0.66</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="4"/>
       <c r="G31" t="s">
         <v>14</v>
       </c>
@@ -1752,7 +1753,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B32">
@@ -1778,7 +1779,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B33">
@@ -1804,7 +1805,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B34">
@@ -1830,7 +1831,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B35">
@@ -1856,7 +1857,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B36">
